--- a/data/case1/19/Q2_1.xlsx
+++ b/data/case1/19/Q2_1.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.091531710999127824</v>
+        <v>0.1026037900120258</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999575097718</v>
+        <v>-0.0059999999246684865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999656572527</v>
+        <v>-0.0039999999413744547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999356790141</v>
+        <v>-0.0079999998905933012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999685479395</v>
+        <v>-0.0029999999514433995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999716233674</v>
+        <v>-0.0019999999628126375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999164932518</v>
+        <v>-0.0099999998654043409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999172570853</v>
+        <v>-0.0099999998674911161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.046857523193409634</v>
+        <v>-0.0019999999724076289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999726714179</v>
+        <v>-0.0019999999789028777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999652314813</v>
+        <v>-0.0029999999675505151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999608493759</v>
+        <v>0.037558936083637473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999577269847</v>
+        <v>-0.0034999999614724331</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999256701315</v>
+        <v>-0.00090788142896602864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997395894269</v>
+        <v>-0.00099999999234157144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999664719326</v>
+        <v>-0.0019999999799389379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999658875112</v>
+        <v>-0.0019999999800033308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999517048579</v>
+        <v>0.00019055030630177328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.028370873943680763</v>
+        <v>-0.0039999999493649518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0065028888749569802</v>
+        <v>-0.003999999945254018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00399999997110001</v>
+        <v>-0.0039999999446420631</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.003999999970821122</v>
+        <v>-0.0039999999442095202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999565129016</v>
+        <v>-0.0049999999249221716</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999848052674</v>
+        <v>-0.019999999732458029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999846006311</v>
+        <v>-0.019999999728598894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999673074313</v>
+        <v>0.012646136940523078</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999661616812</v>
+        <v>-0.002499999954865828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999650481826</v>
+        <v>-0.001999999954970022</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999269327873</v>
+        <v>-0.0069999998898193638</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999556635597</v>
+        <v>-0.059999999233628198</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.046375986228119004</v>
+        <v>0.058633118581246535</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999081070712</v>
+        <v>-0.0099999998623570008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999497570826</v>
+        <v>-0.003999999936487697</v>
       </c>
     </row>
   </sheetData>
